--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -440,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +510,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,16 +525,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02388466666666667</v>
+        <v>0.165144</v>
       </c>
       <c r="H2">
-        <v>0.071654</v>
+        <v>0.495432</v>
       </c>
       <c r="I2">
-        <v>0.4572248987014644</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4572248987014644</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -546,214 +543,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02388466666666667</v>
+        <v>0.165144</v>
       </c>
       <c r="N2">
-        <v>0.071654</v>
+        <v>0.495432</v>
       </c>
       <c r="O2">
-        <v>0.4572248987014644</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4572248987014644</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0005704773017777777</v>
+        <v>0.02727254073599999</v>
       </c>
       <c r="R2">
-        <v>0.005134295715999999</v>
+        <v>0.245452866624</v>
       </c>
       <c r="S2">
-        <v>0.2090546079925644</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.2090546079925644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.02388466666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.071654</v>
-      </c>
-      <c r="I3">
-        <v>0.4572248987014644</v>
-      </c>
-      <c r="J3">
-        <v>0.4572248987014644</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.02835366666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.085061</v>
-      </c>
-      <c r="O3">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="P3">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="Q3">
-        <v>0.0006772178771111111</v>
-      </c>
-      <c r="R3">
-        <v>0.006094960894</v>
-      </c>
-      <c r="S3">
-        <v>0.2481702907089</v>
-      </c>
-      <c r="T3">
-        <v>0.2481702907089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.02835366666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.085061</v>
-      </c>
-      <c r="I4">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="J4">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02388466666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.071654</v>
-      </c>
-      <c r="O4">
-        <v>0.4572248987014644</v>
-      </c>
-      <c r="P4">
-        <v>0.4572248987014644</v>
-      </c>
-      <c r="Q4">
-        <v>0.0006772178771111111</v>
-      </c>
-      <c r="R4">
-        <v>0.006094960894</v>
-      </c>
-      <c r="S4">
-        <v>0.2481702907089</v>
-      </c>
-      <c r="T4">
-        <v>0.2481702907089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.02835366666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.085061</v>
-      </c>
-      <c r="I5">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="J5">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02835366666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.085061</v>
-      </c>
-      <c r="O5">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="P5">
-        <v>0.5427751012985356</v>
-      </c>
-      <c r="Q5">
-        <v>0.0008039304134444444</v>
-      </c>
-      <c r="R5">
-        <v>0.007235373721</v>
-      </c>
-      <c r="S5">
-        <v>0.2946048105896356</v>
-      </c>
-      <c r="T5">
-        <v>0.2946048105896356</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
